--- a/doc/小组log日志/201708044116xs.xlsx
+++ b/doc/小组log日志/201708044116xs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="15264" windowHeight="7452" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>日期时间</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>URL ，以及看课本MVC</t>
+  </si>
+  <si>
+    <t>学习spring mvc,看课本</t>
+  </si>
+  <si>
+    <t>完善web 层</t>
+  </si>
+  <si>
+    <t>完善web 层，学习使用tomcat ，跑一个页面。</t>
   </si>
 </sst>
 </file>
@@ -177,7 +186,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,19 +202,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,6 +239,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -226,7 +292,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,98 +330,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,187 +362,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,6 +553,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +600,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,16 +634,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,41 +653,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -645,10 +661,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,137 +673,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,6 +814,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,10 +1184,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1338,7 +1357,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1346,7 +1365,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1375,6 +1394,30 @@
       </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044116xs.xlsx
+++ b/doc/小组log日志/201708044116xs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15264" windowHeight="7452" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="17880" windowHeight="8304" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>日期时间</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>完善web 层，学习使用tomcat ，跑一个页面。</t>
+  </si>
+  <si>
+    <t>认识URL,深入了解老师的工程</t>
+  </si>
+  <si>
+    <t>了解老师的Dao 的生成器与 service 层的事务回滚问题</t>
+  </si>
+  <si>
+    <t>web 层的完善</t>
+  </si>
+  <si>
+    <t>web中的xml 与 spring-servet 的关系</t>
+  </si>
+  <si>
+    <t>尝试写页面的设计，以及学习javascript</t>
   </si>
 </sst>
 </file>
@@ -182,9 +197,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -210,22 +225,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,68 +323,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,16 +360,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,187 +377,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,21 +576,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +600,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,16 +654,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -661,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -673,133 +688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,10 +1199,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1420,6 +1435,46 @@
         <v>52</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044116xs.xlsx
+++ b/doc/小组log日志/201708044116xs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>日期时间</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>尝试写页面的设计，以及学习javascript</t>
+  </si>
+  <si>
+    <t>Spring MVC</t>
+  </si>
+  <si>
+    <t>html与jsp 的区别，了解静态资源，与加载</t>
   </si>
 </sst>
 </file>
@@ -196,9 +202,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -225,7 +231,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,106 +311,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +335,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -377,6 +383,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -389,49 +503,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,121 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +590,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -619,41 +660,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -676,10 +682,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,31 +694,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -724,97 +733,94 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1199,10 +1205,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1475,6 +1481,22 @@
         <v>57</v>
       </c>
     </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/小组log日志/201708044116xs.xlsx
+++ b/doc/小组log日志/201708044116xs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17880" windowHeight="8304" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="娄梦月" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>日期时间</t>
   </si>
@@ -38,42 +38,24 @@
     <t>日期时间  2019</t>
   </si>
   <si>
-    <t>4.1 8:30--10:30</t>
-  </si>
-  <si>
-    <t>4.3 9:00--12:00</t>
+    <t>4. 2</t>
   </si>
   <si>
     <t>数据库的配置及简单操作</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.6 12:30--14:30</t>
-  </si>
-  <si>
     <t>练习老师上课内容</t>
   </si>
   <si>
-    <t xml:space="preserve">   4.7 18:30--20：30</t>
-  </si>
-  <si>
     <t>了解到Mysql  与SQL server 与Oracle 的区别</t>
   </si>
   <si>
-    <t xml:space="preserve">  4.8 18:00--20：00</t>
-  </si>
-  <si>
     <t>eclipse导入包，看完spring第一章</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4.9 14:00--16:00</t>
-  </si>
-  <si>
     <t>maven的熟悉</t>
   </si>
   <si>
-    <t>4.10 18--20：00</t>
-  </si>
-  <si>
     <t>简单学习JDBC</t>
   </si>
   <si>
@@ -86,63 +68,33 @@
     <t>学习Spring_bean ,学习使用IDEA</t>
   </si>
   <si>
-    <t>4.27 10：00--12：00</t>
-  </si>
-  <si>
     <t>了解的老师的sun工程</t>
   </si>
   <si>
-    <t>4.27 15：00--17：00</t>
-  </si>
-  <si>
     <t>用IDEA建立了一个maven的聚合工程，jar项目的，maven-quickstart ，web：maven site-webapp，聚合项目maven-site</t>
   </si>
   <si>
-    <t>4.28 15：00--17：00</t>
-  </si>
-  <si>
     <t>JavaBean、bean? 什么是POJO、PO、DTO、VO、BO ? 什么是EJB、EntityBean？</t>
   </si>
   <si>
-    <t>4.28 18：00--20：00</t>
-  </si>
-  <si>
     <t>pom文件dependencyManagement 、dependencies与dependcy</t>
   </si>
   <si>
-    <t>4.30 15：00--17：00</t>
-  </si>
-  <si>
     <t>迭代器Iterater, 泛型，以及集合，还有 JDBC的复习</t>
   </si>
   <si>
-    <t>4.30 18：00--20：00</t>
-  </si>
-  <si>
     <t>对maven工程的pom  了解java序列化  、接口Serializable的使用</t>
   </si>
   <si>
-    <t>5.2 15：00--16：20</t>
-  </si>
-  <si>
     <t>深入对泛型的了解</t>
   </si>
   <si>
-    <t>5.2 17：30--20：30</t>
-  </si>
-  <si>
     <t>学习JDBC</t>
   </si>
   <si>
-    <t>5.3 15：00--16：20</t>
-  </si>
-  <si>
     <t>学习JDBC ,了解事务地概念与特点，创建model模型，静态代码块</t>
   </si>
   <si>
-    <t>5.8 18：00--20：20</t>
-  </si>
-  <si>
     <t>完善自己的项目。</t>
   </si>
   <si>
@@ -152,7 +104,7 @@
     <t>spring注解、mvn命令</t>
   </si>
   <si>
-    <t xml:space="preserve">5.13--5.20 </t>
+    <t xml:space="preserve"> 5.13--5.20 </t>
   </si>
   <si>
     <t>完善小组的构架，学习了JPA</t>
@@ -195,6 +147,12 @@
   </si>
   <si>
     <t>html与jsp 的区别，了解静态资源，与加载</t>
+  </si>
+  <si>
+    <t>6.7-至今</t>
+  </si>
+  <si>
+    <t>作为技术人员，一直在做小组的项目的完善，</t>
   </si>
 </sst>
 </file>
@@ -202,12 +160,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +174,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="宋体"/>
@@ -223,6 +182,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -230,20 +190,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -251,25 +245,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,37 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -327,6 +276,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -335,40 +327,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,187 +351,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,50 +550,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +584,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -682,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,137 +662,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,6 +806,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1205,16 +1176,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="30.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="104.333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="92.4537037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1234,51 +1205,51 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>4.6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>4.9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>4.1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1286,111 +1257,111 @@
         <v>4.9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>4.27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>4.27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1398,7 +1369,7 @@
         <v>5.21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1406,7 +1377,7 @@
         <v>5.22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1414,7 +1385,7 @@
         <v>5.23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1422,7 +1393,7 @@
         <v>5.24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1430,7 +1401,7 @@
         <v>5.25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1438,7 +1409,7 @@
         <v>5.27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1446,7 +1417,7 @@
         <v>5.25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1454,7 +1425,7 @@
         <v>5.3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1462,7 +1433,7 @@
         <v>6.1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1470,7 +1441,7 @@
         <v>6.2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1478,7 +1449,7 @@
         <v>6.4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1486,7 +1457,7 @@
         <v>6.5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1494,7 +1465,15 @@
         <v>6.6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/doc/小组log日志/201708044116xs.xlsx
+++ b/doc/小组log日志/201708044116xs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>日期时间</t>
   </si>
@@ -35,9 +35,6 @@
     <t>安装配置数据库</t>
   </si>
   <si>
-    <t>日期时间  2019</t>
-  </si>
-  <si>
     <t>4. 2</t>
   </si>
   <si>
@@ -149,10 +146,37 @@
     <t>html与jsp 的区别，了解静态资源，与加载</t>
   </si>
   <si>
-    <t>6.7-至今</t>
-  </si>
-  <si>
-    <t>作为技术人员，一直在做小组的项目的完善，</t>
+    <t>单元测试以及注解</t>
+  </si>
+  <si>
+    <t>学习ajax框架结构，简单了解jquery</t>
+  </si>
+  <si>
+    <t>学习廖雪峰的学习js</t>
+  </si>
+  <si>
+    <t>继续学习javascript,了解基本语法</t>
+  </si>
+  <si>
+    <t>用jquery联系web层</t>
+  </si>
+  <si>
+    <t>学习了html与css，并对bootstrap有一个简单的了解</t>
+  </si>
+  <si>
+    <t>学习element -ui 学习vue</t>
+  </si>
+  <si>
+    <t>用webstorm搞前端</t>
+  </si>
+  <si>
+    <t>学习跨域，问题</t>
+  </si>
+  <si>
+    <t>6.23-至今</t>
+  </si>
+  <si>
+    <t>一直在学习，从未停止过</t>
   </si>
 </sst>
 </file>
@@ -198,48 +222,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,8 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,75 +344,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,19 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,163 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,30 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -599,31 +599,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +628,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +674,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,133 +686,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,10 +1200,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1188,17 +1212,14 @@
     <col min="2" max="2" width="92.4537037037037" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1209,7 +1230,7 @@
         <v>4.3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1217,7 +1238,7 @@
         <v>4.6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1225,7 +1246,7 @@
         <v>4.7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1233,7 +1254,7 @@
         <v>4.8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1241,7 +1262,7 @@
         <v>4.9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1249,7 +1270,7 @@
         <v>4.1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1257,15 +1278,15 @@
         <v>4.9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1273,7 +1294,7 @@
         <v>4.27</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1281,7 +1302,7 @@
         <v>4.27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1289,7 +1310,7 @@
         <v>4.28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1297,7 +1318,7 @@
         <v>4.28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1305,7 +1326,7 @@
         <v>4.3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1313,7 +1334,7 @@
         <v>4.3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1321,7 +1342,7 @@
         <v>5.2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1329,7 +1350,7 @@
         <v>5.2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1337,7 +1358,7 @@
         <v>5.3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1345,23 +1366,23 @@
         <v>5.8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1369,7 +1390,7 @@
         <v>5.21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1377,7 +1398,7 @@
         <v>5.22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1385,7 +1406,7 @@
         <v>5.23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1393,7 +1414,7 @@
         <v>5.24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1401,7 +1422,7 @@
         <v>5.25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1409,7 +1430,7 @@
         <v>5.27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1417,7 +1438,7 @@
         <v>5.25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1425,7 +1446,7 @@
         <v>5.3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1433,7 +1454,7 @@
         <v>6.1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1441,7 +1462,7 @@
         <v>6.2</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1449,7 +1470,7 @@
         <v>6.4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1457,7 +1478,7 @@
         <v>6.5</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1465,15 +1486,87 @@
         <v>6.6</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>6.11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>6.15</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>6.19</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>6.21</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>6.22</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
